--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件其他案件结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件其他案件结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,691 +493,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C2" t="n">
+        <v>236</v>
+      </c>
       <c r="D2" t="n">
-        <v>11993</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>10186</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9627</v>
+      </c>
+      <c r="F2" t="n">
+        <v>318</v>
+      </c>
+      <c r="G2" t="n">
+        <v>250</v>
+      </c>
+      <c r="H2" t="n">
+        <v>273</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7299</v>
+      </c>
+      <c r="J2" t="n">
+        <v>559</v>
+      </c>
+      <c r="K2" t="n">
+        <v>325</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1201</v>
+      </c>
       <c r="D3" t="n">
-        <v>11169</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>11161</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9683</v>
+      </c>
+      <c r="F3" t="n">
+        <v>306</v>
+      </c>
+      <c r="G3" t="n">
+        <v>288</v>
+      </c>
+      <c r="H3" t="n">
+        <v>229</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7040</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1478</v>
+      </c>
+      <c r="K3" t="n">
+        <v>344</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1446</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1060</v>
+      </c>
       <c r="D4" t="n">
-        <v>10282</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>11539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10226</v>
+      </c>
+      <c r="F4" t="n">
+        <v>289</v>
+      </c>
+      <c r="G4" t="n">
+        <v>267</v>
+      </c>
+      <c r="H4" t="n">
+        <v>202</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7818</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1313</v>
+      </c>
+      <c r="K4" t="n">
+        <v>406</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>647</v>
+        <v>1446</v>
       </c>
       <c r="C5" t="n">
-        <v>115</v>
+        <v>660</v>
       </c>
       <c r="D5" t="n">
-        <v>8211</v>
+        <v>12083</v>
       </c>
       <c r="E5" t="n">
-        <v>7959</v>
+        <v>11100</v>
       </c>
       <c r="F5" t="n">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="G5" t="n">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="H5" t="n">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="I5" t="n">
-        <v>6441</v>
+        <v>8752</v>
       </c>
       <c r="J5" t="n">
-        <v>252</v>
+        <v>983</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="L5" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716</v>
+        <v>1404</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="D6" t="n">
-        <v>7951</v>
+        <v>12666</v>
       </c>
       <c r="E6" t="n">
-        <v>7636</v>
+        <v>11809</v>
       </c>
       <c r="F6" t="n">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="G6" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H6" t="n">
-        <v>154</v>
+        <v>384</v>
       </c>
       <c r="I6" t="n">
-        <v>6015</v>
+        <v>9431</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>857</v>
       </c>
       <c r="K6" t="n">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680</v>
+        <v>1592</v>
       </c>
       <c r="C7" t="n">
-        <v>153</v>
+        <v>486</v>
       </c>
       <c r="D7" t="n">
-        <v>8244</v>
+        <v>14802</v>
       </c>
       <c r="E7" t="n">
-        <v>7923</v>
+        <v>13871</v>
       </c>
       <c r="F7" t="n">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="G7" t="n">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="H7" t="n">
-        <v>152</v>
+        <v>394</v>
       </c>
       <c r="I7" t="n">
-        <v>6396</v>
+        <v>11059</v>
       </c>
       <c r="J7" t="n">
-        <v>321</v>
+        <v>931</v>
       </c>
       <c r="K7" t="n">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="L7" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>837</v>
+        <v>2198</v>
       </c>
       <c r="C8" t="n">
-        <v>215</v>
+        <v>474</v>
       </c>
       <c r="D8" t="n">
-        <v>9185</v>
+        <v>18298</v>
       </c>
       <c r="E8" t="n">
-        <v>8750</v>
+        <v>17456</v>
       </c>
       <c r="F8" t="n">
-        <v>304</v>
+        <v>479</v>
       </c>
       <c r="G8" t="n">
-        <v>237</v>
+        <v>468</v>
       </c>
       <c r="H8" t="n">
-        <v>191</v>
+        <v>316</v>
       </c>
       <c r="I8" t="n">
-        <v>7032</v>
+        <v>13816</v>
       </c>
       <c r="J8" t="n">
-        <v>435</v>
+        <v>842</v>
       </c>
       <c r="K8" t="n">
-        <v>340</v>
+        <v>495</v>
       </c>
       <c r="L8" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1086</v>
+        <v>1644</v>
       </c>
       <c r="C9" t="n">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="D9" t="n">
-        <v>10029</v>
+        <v>17065</v>
       </c>
       <c r="E9" t="n">
-        <v>9548</v>
+        <v>16276</v>
       </c>
       <c r="F9" t="n">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>269</v>
+        <v>1024</v>
       </c>
       <c r="H9" t="n">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="I9" t="n">
-        <v>7503</v>
+        <v>12957</v>
       </c>
       <c r="J9" t="n">
-        <v>481</v>
+        <v>766</v>
       </c>
       <c r="K9" t="n">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="L9" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="C10" t="n">
-        <v>236</v>
+        <v>406</v>
       </c>
       <c r="D10" t="n">
-        <v>10186</v>
+        <v>12234</v>
       </c>
       <c r="E10" t="n">
-        <v>9627</v>
-      </c>
-      <c r="F10" t="n">
-        <v>318</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
+        <v>11620</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="I10" t="n">
-        <v>7299</v>
+        <v>8833</v>
       </c>
       <c r="J10" t="n">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="K10" t="n">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="L10" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1705</v>
+        <v>1864</v>
       </c>
       <c r="C11" t="n">
-        <v>1201</v>
+        <v>489</v>
       </c>
       <c r="D11" t="n">
-        <v>11161</v>
+        <v>13911</v>
       </c>
       <c r="E11" t="n">
-        <v>9683</v>
-      </c>
-      <c r="F11" t="n">
-        <v>306</v>
-      </c>
-      <c r="G11" t="n">
-        <v>288</v>
-      </c>
+        <v>13095</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="I11" t="n">
-        <v>7040</v>
+        <v>9517</v>
       </c>
       <c r="J11" t="n">
-        <v>1478</v>
+        <v>804</v>
       </c>
       <c r="K11" t="n">
-        <v>344</v>
+        <v>495</v>
       </c>
       <c r="L11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1446</v>
+        <v>1835</v>
       </c>
       <c r="C12" t="n">
-        <v>1060</v>
+        <v>511</v>
       </c>
       <c r="D12" t="n">
-        <v>11539</v>
+        <v>13126</v>
       </c>
       <c r="E12" t="n">
-        <v>10226</v>
-      </c>
-      <c r="F12" t="n">
-        <v>289</v>
-      </c>
-      <c r="G12" t="n">
-        <v>267</v>
-      </c>
+        <v>12358</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I12" t="n">
-        <v>7818</v>
+        <v>8806</v>
       </c>
       <c r="J12" t="n">
-        <v>1313</v>
+        <v>756</v>
       </c>
       <c r="K12" t="n">
-        <v>406</v>
+        <v>464</v>
       </c>
       <c r="L12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1446</v>
+        <v>2455</v>
       </c>
       <c r="C13" t="n">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D13" t="n">
-        <v>12083</v>
+        <v>16516</v>
       </c>
       <c r="E13" t="n">
-        <v>11100</v>
-      </c>
-      <c r="F13" t="n">
-        <v>292</v>
-      </c>
-      <c r="G13" t="n">
-        <v>263</v>
-      </c>
+        <v>15485</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I13" t="n">
-        <v>8752</v>
+        <v>10784</v>
       </c>
       <c r="J13" t="n">
-        <v>983</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>347</v>
+        <v>475</v>
       </c>
       <c r="L13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1404</v>
-      </c>
-      <c r="C14" t="n">
-        <v>418</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12666</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11809</v>
-      </c>
-      <c r="F14" t="n">
-        <v>335</v>
-      </c>
-      <c r="G14" t="n">
-        <v>288</v>
-      </c>
-      <c r="H14" t="n">
-        <v>384</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9431</v>
-      </c>
-      <c r="J14" t="n">
-        <v>857</v>
-      </c>
-      <c r="K14" t="n">
-        <v>351</v>
-      </c>
-      <c r="L14" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1592</v>
-      </c>
-      <c r="C15" t="n">
-        <v>486</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14802</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13871</v>
-      </c>
-      <c r="F15" t="n">
-        <v>413</v>
-      </c>
-      <c r="G15" t="n">
-        <v>344</v>
-      </c>
-      <c r="H15" t="n">
-        <v>394</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11059</v>
-      </c>
-      <c r="J15" t="n">
-        <v>931</v>
-      </c>
-      <c r="K15" t="n">
-        <v>463</v>
-      </c>
-      <c r="L15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2198</v>
-      </c>
-      <c r="C16" t="n">
-        <v>474</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18298</v>
-      </c>
-      <c r="E16" t="n">
-        <v>17456</v>
-      </c>
-      <c r="F16" t="n">
-        <v>479</v>
-      </c>
-      <c r="G16" t="n">
-        <v>468</v>
-      </c>
-      <c r="H16" t="n">
-        <v>316</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13816</v>
-      </c>
-      <c r="J16" t="n">
-        <v>842</v>
-      </c>
-      <c r="K16" t="n">
-        <v>495</v>
-      </c>
-      <c r="L16" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1644</v>
-      </c>
-      <c r="C17" t="n">
-        <v>426</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17065</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16276</v>
-      </c>
-      <c r="F17" t="n">
-        <v>79</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1024</v>
-      </c>
-      <c r="H17" t="n">
-        <v>282</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12957</v>
-      </c>
-      <c r="J17" t="n">
-        <v>766</v>
-      </c>
-      <c r="K17" t="n">
-        <v>477</v>
-      </c>
-      <c r="L17" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1417</v>
-      </c>
-      <c r="C18" t="n">
-        <v>406</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12234</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11620</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>164</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8833</v>
-      </c>
-      <c r="J18" t="n">
-        <v>601</v>
-      </c>
-      <c r="K18" t="n">
-        <v>453</v>
-      </c>
-      <c r="L18" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1864</v>
-      </c>
-      <c r="C19" t="n">
-        <v>489</v>
-      </c>
-      <c r="D19" t="n">
-        <v>13911</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13095</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>260</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9517</v>
-      </c>
-      <c r="J19" t="n">
-        <v>804</v>
-      </c>
-      <c r="K19" t="n">
-        <v>495</v>
-      </c>
-      <c r="L19" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1835</v>
-      </c>
-      <c r="C20" t="n">
-        <v>511</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13126</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12358</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1119</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>204</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8806</v>
-      </c>
-      <c r="J20" t="n">
-        <v>756</v>
-      </c>
-      <c r="K20" t="n">
-        <v>464</v>
-      </c>
-      <c r="L20" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
